--- a/hero/hero-service/src/test/resources/hero.order.xlsx
+++ b/hero/hero-service/src/test/resources/hero.order.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13115" windowHeight="3132"/>
+    <workbookView windowWidth="16968" windowHeight="5555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:C31"/>
 </workbook>
 </file>
 
@@ -25,7 +24,7 @@
     <t>总成本</t>
   </si>
   <si>
-    <t>净利润</t>
+    <t>总利润</t>
   </si>
 </sst>
 </file>
@@ -33,12 +32,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,16 +46,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -71,14 +76,86 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,99 +170,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,43 +206,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,138 +387,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +410,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -414,30 +435,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,153 +488,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,7 +1002,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>

--- a/hero/hero-service/src/test/resources/hero.order.xlsx
+++ b/hero/hero-service/src/test/resources/hero.order.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16968" windowHeight="5555"/>
+    <workbookView windowWidth="17628" windowHeight="5135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:C31"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>总销售额</t>
   </si>
@@ -26,18 +27,24 @@
   <si>
     <t>总利润</t>
   </si>
+  <si>
+    <t>折扣券</t>
+  </si>
+  <si>
+    <t>积分</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,21 +54,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,60 +143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -137,9 +151,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,7 +161,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,16 +175,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,20 +192,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,6 +206,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -218,31 +368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,139 +380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,7 +404,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -424,37 +439,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,6 +459,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,153 +502,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -999,15 +1002,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1017,8 +1020,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>11111</v>
       </c>
@@ -1028,8 +1037,14 @@
       <c r="C2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>11112</v>
       </c>
@@ -1039,8 +1054,14 @@
       <c r="C3">
         <v>10001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>11113</v>
       </c>
@@ -1050,8 +1071,14 @@
       <c r="C4">
         <v>10002</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>11114</v>
       </c>
@@ -1061,8 +1088,14 @@
       <c r="C5">
         <v>10003</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>11115</v>
       </c>
@@ -1072,8 +1105,14 @@
       <c r="C6">
         <v>10004</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>11116</v>
       </c>
@@ -1083,8 +1122,14 @@
       <c r="C7">
         <v>10005</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>11117</v>
       </c>
@@ -1094,8 +1139,14 @@
       <c r="C8">
         <v>10006</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>11118</v>
       </c>
@@ -1105,8 +1156,14 @@
       <c r="C9">
         <v>10007</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>11119</v>
       </c>
@@ -1116,8 +1173,14 @@
       <c r="C10">
         <v>10008</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>11120</v>
       </c>
@@ -1127,8 +1190,14 @@
       <c r="C11">
         <v>10009</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11121</v>
       </c>
@@ -1138,8 +1207,14 @@
       <c r="C12">
         <v>10010</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>11122</v>
       </c>
@@ -1149,8 +1224,14 @@
       <c r="C13">
         <v>10011</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>11123</v>
       </c>
@@ -1160,8 +1241,14 @@
       <c r="C14">
         <v>10012</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>11124</v>
       </c>
@@ -1171,8 +1258,14 @@
       <c r="C15">
         <v>10013</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>11125</v>
       </c>
@@ -1182,8 +1275,14 @@
       <c r="C16">
         <v>10014</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>11126</v>
       </c>
@@ -1193,8 +1292,14 @@
       <c r="C17">
         <v>10015</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>11127</v>
       </c>
@@ -1204,8 +1309,14 @@
       <c r="C18">
         <v>10016</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>11128</v>
       </c>
@@ -1215,8 +1326,14 @@
       <c r="C19">
         <v>10017</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>11129</v>
       </c>
@@ -1226,8 +1343,14 @@
       <c r="C20">
         <v>10018</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>11130</v>
       </c>
@@ -1237,8 +1360,14 @@
       <c r="C21">
         <v>10019</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>11131</v>
       </c>
@@ -1248,8 +1377,14 @@
       <c r="C22">
         <v>10020</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>11132</v>
       </c>
@@ -1259,8 +1394,14 @@
       <c r="C23">
         <v>10021</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>11133</v>
       </c>
@@ -1270,8 +1411,14 @@
       <c r="C24">
         <v>10022</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>11134</v>
       </c>
@@ -1281,8 +1428,14 @@
       <c r="C25">
         <v>10023</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>11135</v>
       </c>
@@ -1292,8 +1445,14 @@
       <c r="C26">
         <v>10024</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>11136</v>
       </c>
@@ -1303,8 +1462,14 @@
       <c r="C27">
         <v>10025</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>11137</v>
       </c>
@@ -1314,8 +1479,14 @@
       <c r="C28">
         <v>10026</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>11138</v>
       </c>
@@ -1325,8 +1496,14 @@
       <c r="C29">
         <v>10027</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>11139</v>
       </c>
@@ -1336,8 +1513,14 @@
       <c r="C30">
         <v>10028</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>11140</v>
       </c>
@@ -1346,6 +1529,12 @@
       </c>
       <c r="C31">
         <v>10029</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
